--- a/data/pyxl-A.xlsx
+++ b/data/pyxl-A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,20 +421,137 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="C1" t="n">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Under the Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>302</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B7" t="n">
+        <v>504</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>22</v>
+      <c r="B8" t="n">
+        <v>708</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>103</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Shoes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>303</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>302</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
     </row>
   </sheetData>
